--- a/data/teacher/Sandro.xlsx
+++ b/data/teacher/Sandro.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0, 'MCT-2A-Programacao', 0, 0]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[0, 'MCT-2A-Programacao', 0, 0]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
